--- a/GA_bNa_bCa_NaK/Errors_ctrl4.xlsx
+++ b/GA_bNa_bCa_NaK/Errors_ctrl4.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>446934.2323468363</v>
+        <v>448034.3105910276</v>
       </c>
       <c r="B2" t="n">
-        <v>4425.64857784696</v>
+        <v>19472.58541468914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>458623.6211076286</v>
+        <v>446634.7893039369</v>
       </c>
       <c r="B3" t="n">
-        <v>72656.1307316756</v>
+        <v>27512.57714339958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>430588.8550818269</v>
+        <v>415614.624822357</v>
       </c>
       <c r="B4" t="n">
-        <v>14230.54578426651</v>
+        <v>25483.24302924269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>397902.9881270699</v>
+        <v>374902.647666736</v>
       </c>
       <c r="B5" t="n">
-        <v>13704.31166959741</v>
+        <v>8285.219021622243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>384905.4351096661</v>
+        <v>337837.490572145</v>
       </c>
       <c r="B6" t="n">
-        <v>5176.353879483197</v>
+        <v>17372.4646931202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>363262.8875738145</v>
+        <v>324064.054857153</v>
       </c>
       <c r="B7" t="n">
-        <v>17910.31057318901</v>
+        <v>19803.89717671827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>336628.1429703298</v>
+        <v>307884.1837668482</v>
       </c>
       <c r="B8" t="n">
-        <v>6380.925757193265</v>
+        <v>18488.08988698753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>323659.4256979584</v>
+        <v>321501.9926582199</v>
       </c>
       <c r="B9" t="n">
-        <v>7963.456757078561</v>
+        <v>8941.793302069167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>303173.9195259535</v>
+        <v>297712.6844155373</v>
       </c>
       <c r="B10" t="n">
-        <v>8827.190315551632</v>
+        <v>25346.14393334125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>295272.8846480824</v>
+        <v>286167.0205779107</v>
       </c>
       <c r="B11" t="n">
-        <v>6186.889222962388</v>
+        <v>10121.86038711768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>259688.8022928504</v>
+        <v>295980.4176929015</v>
       </c>
       <c r="B12" t="n">
-        <v>4202.490119774595</v>
+        <v>10179.82043061455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>284145.7243690009</v>
+        <v>259627.3060248236</v>
       </c>
       <c r="B13" t="n">
-        <v>3403.459183743039</v>
+        <v>10228.71835335757</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>300151.6654982144</v>
+        <v>229237.738939415</v>
       </c>
       <c r="B14" t="n">
-        <v>4422.844576124892</v>
+        <v>6522.045374173386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252325.5381244195</v>
+        <v>191439.4323086054</v>
       </c>
       <c r="B15" t="n">
-        <v>3102.675838311435</v>
+        <v>6212.632889246981</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>235313.7455491666</v>
+        <v>167383.5183933465</v>
       </c>
       <c r="B16" t="n">
-        <v>2706.245933942858</v>
+        <v>5375.986957977259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>198697.3932665976</v>
+        <v>153726.2858080397</v>
       </c>
       <c r="B17" t="n">
-        <v>3085.659703612537</v>
+        <v>5524.793626880375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>169523.3697454102</v>
+        <v>95298.43036864171</v>
       </c>
       <c r="B18" t="n">
-        <v>3099.570240021728</v>
+        <v>5578.355176457509</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>145549.8993686205</v>
+        <v>121249.8487613272</v>
       </c>
       <c r="B19" t="n">
-        <v>3082.013344163011</v>
+        <v>4921.85681229152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104025.9852453686</v>
+        <v>65587.58257641393</v>
       </c>
       <c r="B20" t="n">
-        <v>2498.413815697233</v>
+        <v>4989.043982469011</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>128369.7382648476</v>
+        <v>53388.89255651413</v>
       </c>
       <c r="B21" t="n">
-        <v>2422.512453924911</v>
+        <v>3933.598503907604</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>118644.4840997248</v>
+        <v>29950.41681259319</v>
       </c>
       <c r="B22" t="n">
-        <v>2382.767820641858</v>
+        <v>4373.326634389249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99180.01055917289</v>
+        <v>31420.08113629697</v>
       </c>
       <c r="B23" t="n">
-        <v>2531.972083594829</v>
+        <v>3673.822480280703</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>74914.23554029466</v>
+        <v>23563.24890414076</v>
       </c>
       <c r="B24" t="n">
-        <v>2671.954600253778</v>
+        <v>4293.453881377348</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>37350.26504144513</v>
+        <v>23558.07960630957</v>
       </c>
       <c r="B25" t="n">
-        <v>2509.713732222395</v>
+        <v>3829.578705682397</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>38780.13753129716</v>
+        <v>32480.59548160191</v>
       </c>
       <c r="B26" t="n">
-        <v>2382.115164505209</v>
+        <v>4286.491322241192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>49899.3386780261</v>
+        <v>20376.50117243816</v>
       </c>
       <c r="B27" t="n">
-        <v>2519.205594495063</v>
+        <v>4134.0883473772</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>24991.22594808273</v>
+        <v>17340.80031927927</v>
       </c>
       <c r="B28" t="n">
-        <v>2301.803464466858</v>
+        <v>4165.584765489854</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>23393.46720286763</v>
+        <v>36880.89711511841</v>
       </c>
       <c r="B29" t="n">
-        <v>2199.292671308501</v>
+        <v>4074.748661534389</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>35122.12892561992</v>
+        <v>23525.69800516977</v>
       </c>
       <c r="B30" t="n">
-        <v>2249.130487309962</v>
+        <v>3957.243482013076</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18135.30743361387</v>
+        <v>36104.09588156902</v>
       </c>
       <c r="B31" t="n">
-        <v>2249.130487309962</v>
+        <v>3815.114363653975</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30783.21961071794</v>
+        <v>26849.61029765322</v>
       </c>
       <c r="B32" t="n">
-        <v>2136.946950970774</v>
+        <v>3948.454441602301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>24966.15487826869</v>
+        <v>16255.23071511855</v>
       </c>
       <c r="B33" t="n">
-        <v>1926.930687188848</v>
+        <v>3635.128466745184</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>27473.87246076942</v>
+        <v>18861.44340219258</v>
       </c>
       <c r="B34" t="n">
-        <v>1852.284617333421</v>
+        <v>3823.27186153764</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34959.86173056128</v>
+        <v>23090.73800392482</v>
       </c>
       <c r="B35" t="n">
-        <v>1995.840282402312</v>
+        <v>3575.770674783824</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15699.69038973822</v>
+        <v>22688.50091343139</v>
       </c>
       <c r="B36" t="n">
-        <v>1996.697722295726</v>
+        <v>3613.144051771109</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>24958.4002118732</v>
+        <v>12992.73508413783</v>
       </c>
       <c r="B37" t="n">
-        <v>2004.141777388214</v>
+        <v>3456.918068511025</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>16063.60523595806</v>
+        <v>17991.17977831166</v>
       </c>
       <c r="B38" t="n">
-        <v>1890.431182469708</v>
+        <v>3743.325137132005</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>25766.72627916513</v>
+        <v>18062.74185847482</v>
       </c>
       <c r="B39" t="n">
-        <v>1721.903214448325</v>
+        <v>3420.472470901936</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19157.52422099773</v>
+        <v>24126.02007423421</v>
       </c>
       <c r="B40" t="n">
-        <v>1751.039864685837</v>
+        <v>3432.155745936388</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21529.54109434389</v>
+        <v>9625.733848698272</v>
       </c>
       <c r="B41" t="n">
-        <v>1742.386199044724</v>
+        <v>3532.58657986483</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15776.03953032606</v>
+        <v>24768.22600957987</v>
       </c>
       <c r="B42" t="n">
-        <v>1704.525679233169</v>
+        <v>3458.136072171756</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19976.89910220039</v>
+        <v>38745.10042750705</v>
       </c>
       <c r="B43" t="n">
-        <v>1655.343704765473</v>
+        <v>2689.269036352273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>24327.22955723919</v>
+        <v>29655.54791629342</v>
       </c>
       <c r="B44" t="n">
-        <v>1587.459250307796</v>
+        <v>3016.326900518089</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9698.714807359043</v>
+        <v>21476.73040322957</v>
       </c>
       <c r="B45" t="n">
-        <v>1707.29158414535</v>
+        <v>2801.385760176326</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>19363.91471086294</v>
+        <v>21741.15520539173</v>
       </c>
       <c r="B46" t="n">
-        <v>1654.818622010475</v>
+        <v>2802.074591073941</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9380.813609230288</v>
+        <v>29763.21628702414</v>
       </c>
       <c r="B47" t="n">
-        <v>1454.082235452798</v>
+        <v>2890.621228619864</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7360.584810221881</v>
+        <v>9984.322674587864</v>
       </c>
       <c r="B48" t="n">
-        <v>1481.578811509564</v>
+        <v>2898.420926183403</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12940.36054702533</v>
+        <v>35846.30021855948</v>
       </c>
       <c r="B49" t="n">
-        <v>1535.60077038675</v>
+        <v>2783.554470714235</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>32425.26407408843</v>
+        <v>30482.55015715947</v>
       </c>
       <c r="B50" t="n">
-        <v>1356.063100996226</v>
+        <v>2872.720491522749</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>12439.05048190749</v>
+        <v>18814.67389451027</v>
       </c>
       <c r="B51" t="n">
-        <v>1440.345008569849</v>
+        <v>2751.56743782744</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20084.59739565444</v>
+        <v>60717.11840247186</v>
       </c>
       <c r="B52" t="n">
-        <v>1441.866289515433</v>
+        <v>2779.187916561779</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>22289.91787104643</v>
+        <v>37948.55097826694</v>
       </c>
       <c r="B53" t="n">
-        <v>1414.082836396161</v>
+        <v>2652.484188273808</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13327.74645137602</v>
+        <v>39562.13310462228</v>
       </c>
       <c r="B54" t="n">
-        <v>1480.62858962813</v>
+        <v>1914.265074664344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>14393.10112715342</v>
+        <v>42432.7424845516</v>
       </c>
       <c r="B55" t="n">
-        <v>1495.411336246302</v>
+        <v>2777.338273102112</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15585.60276070151</v>
+        <v>29797.06473128208</v>
       </c>
       <c r="B56" t="n">
-        <v>1548.361210614481</v>
+        <v>2340.427614591184</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14689.27012072614</v>
+        <v>26033.94045968098</v>
       </c>
       <c r="B57" t="n">
-        <v>1547.638862292701</v>
+        <v>2384.823433047721</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22687.84951099534</v>
+        <v>24718.93200042225</v>
       </c>
       <c r="B58" t="n">
-        <v>1394.56931116583</v>
+        <v>2008.10449959385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22317.96251928913</v>
+        <v>22884.51699984355</v>
       </c>
       <c r="B59" t="n">
-        <v>1415.764488560765</v>
+        <v>2032.228047490335</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31299.24768622061</v>
+        <v>41211.80001873258</v>
       </c>
       <c r="B60" t="n">
-        <v>1426.743529386806</v>
+        <v>2032.551835042307</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14825.80021172156</v>
+        <v>51170.36183384271</v>
       </c>
       <c r="B61" t="n">
-        <v>1434.070168692946</v>
+        <v>2010.419434840072</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9091.702501931468</v>
+        <v>56119.70896301841</v>
       </c>
       <c r="B62" t="n">
-        <v>1372.854437613461</v>
+        <v>2112.075278442758</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>25107.79456228663</v>
+        <v>61450.02752395293</v>
       </c>
       <c r="B63" t="n">
-        <v>1330.136771410125</v>
+        <v>2195.661823394892</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>16751.51868192181</v>
+        <v>44665.77292867177</v>
       </c>
       <c r="B64" t="n">
-        <v>1348.127513632917</v>
+        <v>2039.020004911296</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>16770.41110720274</v>
+        <v>25955.62393760053</v>
       </c>
       <c r="B65" t="n">
-        <v>1284.534136777807</v>
+        <v>1832.818615622663</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>21084.06891608019</v>
+        <v>17420.48871724942</v>
       </c>
       <c r="B66" t="n">
-        <v>1186.006924576409</v>
+        <v>1832.818615622663</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>19903.61294972272</v>
+        <v>54080.91637982552</v>
       </c>
       <c r="B67" t="n">
-        <v>1294.038196215168</v>
+        <v>1694.935800990732</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7138.180419867384</v>
+        <v>48194.90018562019</v>
       </c>
       <c r="B68" t="n">
-        <v>1247.531070132476</v>
+        <v>1649.532533292905</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>19795.16876691741</v>
+        <v>74567.2298501489</v>
       </c>
       <c r="B69" t="n">
-        <v>1258.050292048478</v>
+        <v>1788.72928716274</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5117.423167930837</v>
+        <v>72676.71497186674</v>
       </c>
       <c r="B70" t="n">
-        <v>1178.509655460282</v>
+        <v>1554.822560500718</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>16084.87610320311</v>
+        <v>82592.27445360304</v>
       </c>
       <c r="B71" t="n">
-        <v>1178.509655460282</v>
+        <v>1409.322992339368</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>32745.93901404445</v>
+        <v>108097.7514254618</v>
       </c>
       <c r="B72" t="n">
-        <v>1173.036980911244</v>
+        <v>1485.424294760885</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12727.11220835981</v>
+        <v>68627.77235571758</v>
       </c>
       <c r="B73" t="n">
-        <v>1158.604965520285</v>
+        <v>1425.46354021804</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>17345.08445300343</v>
+        <v>51640.71392889554</v>
       </c>
       <c r="B74" t="n">
-        <v>998.9082333171662</v>
+        <v>1698.950890918546</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>24679.49469891427</v>
+        <v>50810.92233788056</v>
       </c>
       <c r="B75" t="n">
-        <v>1116.857174144838</v>
+        <v>1580.349040732772</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>25253.33361954039</v>
+        <v>52496.55477638476</v>
       </c>
       <c r="B76" t="n">
-        <v>1107.043880122586</v>
+        <v>1659.689045710804</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6953.745396039774</v>
+        <v>45606.20119370544</v>
       </c>
       <c r="B77" t="n">
-        <v>1111.768134983417</v>
+        <v>1429.713784890045</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>17428.83086565085</v>
+        <v>28678.77979644725</v>
       </c>
       <c r="B78" t="n">
-        <v>1088.989961550031</v>
+        <v>1411.603118577926</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16823.5133290842</v>
+        <v>58372.14589895747</v>
       </c>
       <c r="B79" t="n">
-        <v>1044.21536005344</v>
+        <v>1252.811503606841</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9742.124528631275</v>
+        <v>48393.38790899049</v>
       </c>
       <c r="B80" t="n">
-        <v>1004.609607075693</v>
+        <v>1293.522807550552</v>
       </c>
     </row>
   </sheetData>
